--- a/biology/Médecine/NSD2/NSD2.xlsx
+++ b/biology/Médecine/NSD2/NSD2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le NSD2 (pour « nuclear receptor binding SET domain protein 2 ») ou WHSC1 est une histone méthyltransférase. Son gène est NSD2 porté par le chromosome 4 humain.
 </t>
@@ -511,9 +523,11 @@
           <t>Rôle</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il permet la diméthylation de l'histone H3, favorisant l'oncogenèse[5], en particulier en activant la voie du NF-κB[6]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il permet la diméthylation de l'histone H3, favorisant l'oncogenèse, en particulier en activant la voie du NF-κB. 
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>En médecine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est soupçonné de jouer un rôle dans le syndrome de Wolf-Hirschhorn[7] (d'où son autre nom, WHSC pour « Wolf-Hirschhorn syndrome candidate 1 »)
-Son gène est également fréquemment le lieu de translocation au cours du myélome multiple[8], aboutissant à la synthèse d'une protéine modifiée.
-Son expression est augmentée dans plusieurs cancers avec une signification pronostique variable[9]. Il augmente en particulier l'expression du TWIST1 en se fixant sur son locus, favorisant le caractère invasif du cancer de la prostate[10].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est soupçonné de jouer un rôle dans le syndrome de Wolf-Hirschhorn (d'où son autre nom, WHSC pour « Wolf-Hirschhorn syndrome candidate 1 »)
+Son gène est également fréquemment le lieu de translocation au cours du myélome multiple, aboutissant à la synthèse d'une protéine modifiée.
+Son expression est augmentée dans plusieurs cancers avec une signification pronostique variable. Il augmente en particulier l'expression du TWIST1 en se fixant sur son locus, favorisant le caractère invasif du cancer de la prostate.
 </t>
         </is>
       </c>
